--- a/test_cases2.xlsx
+++ b/test_cases2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valwur0b\Desktop\mindsphere\GCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EE91B7-A85E-4E0B-984B-3AC762A8B2D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6F5833-BEAE-4D04-B51A-50AF7BA3FC42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{82EC0E01-F685-445B-A746-A0521EC60300}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="Too_long_2" sheetId="5" r:id="rId5"/>
     <sheet name="7h_Consumption" sheetId="6" r:id="rId6"/>
     <sheet name="5h_Consumption" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'5h_Consumption'!$A$1:$E$287</definedName>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5753" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5752" uniqueCount="295">
   <si>
     <t>DATUM</t>
   </si>
@@ -1347,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CE720-8407-422B-AE13-83C832889133}">
   <dimension ref="A1:E287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25887,8 +25886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D06A6-3756-4C52-8C70-1C386B22F137}">
   <dimension ref="A1:E287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27944,8 +27943,8 @@
       <c r="A121" s="2">
         <v>44364</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>128</v>
+      <c r="B121" s="3">
+        <v>100629</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>6</v>
@@ -30780,7 +30779,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E287" xr:uid="{834CD727-62EC-4209-A9A9-097C6501C0C8}"/>
+  <autoFilter ref="A1:E287" xr:uid="{834CD727-62EC-4209-A9A9-097C6501C0C8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E287">
+      <sortCondition ref="B1:B287"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
@@ -35709,97 +35712,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16278A38-0C28-429F-AB78-A46E4D399888}">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010030423FBF2FA36E4E996A57B02E17E458" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3e487fddb8a72c70ed683f45120b9f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="07f7181e-03a6-40fa-9c32-3e91fdba8a1f" xmlns:ns4="476f61b7-b5fd-4306-b383-f03fd9cdd02e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="850f9f2f18efd3ecb9ea9a2e28f0daf4" ns3:_="" ns4:_="">
     <xsd:import namespace="07f7181e-03a6-40fa-9c32-3e91fdba8a1f"/>
@@ -36022,22 +35950,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABD8008-C2D9-43EF-A25A-F2F3D3E1BCAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="07f7181e-03a6-40fa-9c32-3e91fdba8a1f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="476f61b7-b5fd-4306-b383-f03fd9cdd02e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B3693A-C248-4B06-8029-AF50E8227C68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D31BA0F5-6194-4416-8FE4-39FB95299669}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36054,29 +35992,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B3693A-C248-4B06-8029-AF50E8227C68}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABD8008-C2D9-43EF-A25A-F2F3D3E1BCAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="07f7181e-03a6-40fa-9c32-3e91fdba8a1f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="476f61b7-b5fd-4306-b383-f03fd9cdd02e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>